--- a/lib/dat/vegetal_product_properties.xlsx
+++ b/lib/dat/vegetal_product_properties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\OneDrive - University of East Anglia\FALAFEL_work_shared\PyFALAFEL_WRAP\pyFALAFEL-WRAP\lib\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom\OneDrive - University of East Anglia\FALAFEL_work_shared\C-LLAMA\C-LLAMA-v1.0\C-LLAMA-v1.0\lib\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8C8A3-1DCA-4262-84CF-32F2EECF094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5AE8C8A3-1DCA-4262-84CF-32F2EECF094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{361AB239-07AF-4A74-8D96-41B549D3F5BE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3D6E6BB-58C6-4165-A97F-47381CDC627C}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{E3D6E6BB-58C6-4165-A97F-47381CDC627C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Pulses</t>
   </si>
@@ -77,40 +77,37 @@
     <t>Fruits - Excluding Wine</t>
   </si>
   <si>
+    <t>Spices</t>
+  </si>
+  <si>
+    <t>Starchy Roots</t>
+  </si>
+  <si>
+    <t>Sugar Crops</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Luxuries (excluding Alcohol)</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>moisture_content</t>
+  </si>
+  <si>
+    <t>energy_density</t>
+  </si>
+  <si>
+    <t>Sugar &amp; Sweeteners</t>
+  </si>
+  <si>
     <t>Oilcrops</t>
-  </si>
-  <si>
-    <t>Spices</t>
-  </si>
-  <si>
-    <t>Starchy Roots</t>
-  </si>
-  <si>
-    <t>Sugar Crops</t>
-  </si>
-  <si>
-    <t>Vegetable Oils</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>Luxuries (excluding Alcohol)</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>moisture_content</t>
-  </si>
-  <si>
-    <t>energy_density</t>
-  </si>
-  <si>
-    <t>Sugar &amp; Sweeteners</t>
   </si>
 </sst>
 </file>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE978E2-15DE-43CB-B5DB-8679B3C867C3}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,10 +483,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,32 +634,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C15">
-        <v>19.05</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0.15</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>16.25</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0.7</v>
+      </c>
       <c r="C17">
-        <v>15.69</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,73 +667,65 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="C18">
-        <v>4.26</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="C19">
-        <v>5.4</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.85</v>
       </c>
       <c r="C20">
-        <v>36.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0.85</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>2.7</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>16.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <f>AVERAGE(C2:C22)</f>
+        <v>12.959523809523811</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <f>AVERAGE(C2:C23)</f>
-        <v>14.047727272727274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <f>AVERAGE(C19,C5)</f>
+        <f>AVERAGE(C18,C5)</f>
         <v>5.1750000000000007</v>
       </c>
     </row>
@@ -746,6 +735,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DA1B9EF02B691849B0E5644F67E2D434" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="452b00389261395ffb4cd793dff9b313">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="48888313-9b8f-4f47-b75b-08d7045ac702" xmlns:ns4="47405c06-eb7a-4b77-a679-8e158f60ac86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dca5d32c89a80cd439e1a1e8d2e09bca" ns3:_="" ns4:_="">
     <xsd:import namespace="48888313-9b8f-4f47-b75b-08d7045ac702"/>
@@ -968,22 +972,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146C3BFB-1FC9-49AF-A075-24BF2CE4B520}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="47405c06-eb7a-4b77-a679-8e158f60ac86"/>
+    <ds:schemaRef ds:uri="48888313-9b8f-4f47-b75b-08d7045ac702"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D22F3D-31A0-44BE-B813-ECBB4E716700}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A99F772-0AC0-4BE1-A3B1-E2CD8873C8CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1000,29 +1014,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D22F3D-31A0-44BE-B813-ECBB4E716700}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146C3BFB-1FC9-49AF-A075-24BF2CE4B520}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="47405c06-eb7a-4b77-a679-8e158f60ac86"/>
-    <ds:schemaRef ds:uri="48888313-9b8f-4f47-b75b-08d7045ac702"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>